--- a/FerramentaFPAProfRJPAutomaticaLock.xlsx
+++ b/FerramentaFPAProfRJPAutomaticaLock.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labsfiap\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\labsfiap\Documents\GitHub\ferramentaFPAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6E1938-F6DE-4018-A2E6-819A1FE2DAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF927CB-5BF1-46EF-B034-9DF348C1486B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pontos Nao Ajustados" sheetId="1" r:id="rId1"/>
@@ -1765,7 +1765,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N424"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C17" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H13" sqref="H13:H19"/>
     </sheetView>
   </sheetViews>
@@ -11211,8 +11211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11251,20 +11251,24 @@
       </c>
       <c r="F5">
         <f>0.65+(0.01*C20)</f>
-        <v>0.65</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="22"/>
+      <c r="C6" s="22">
+        <v>5</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="23"/>
+      <c r="C7" s="23">
+        <v>0</v>
+      </c>
       <c r="E7" t="s">
         <v>48</v>
       </c>
@@ -11277,80 +11281,104 @@
       <c r="B8" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="23"/>
+      <c r="C8" s="23">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="23"/>
+      <c r="C9" s="23">
+        <v>1</v>
+      </c>
       <c r="E9" s="12" t="s">
         <v>47</v>
       </c>
       <c r="F9" s="12">
         <f>F5*F7</f>
-        <v>35.1</v>
+        <v>49.68</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="23"/>
+      <c r="C10" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="23"/>
+      <c r="C11" s="23">
+        <v>5</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="23"/>
+      <c r="C12" s="23">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="23"/>
+      <c r="C13" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="23"/>
+      <c r="C14" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="23"/>
+      <c r="C15" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="23"/>
+      <c r="C16" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="23"/>
+      <c r="C17" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="23"/>
+      <c r="C18" s="23">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="24"/>
+      <c r="C19" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="2:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B20" s="13" t="s">
@@ -11358,7 +11386,7 @@
       </c>
       <c r="C20" s="14">
         <f>SUM(C6:C19)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
